--- a/assets/template/PRS_template.xlsx
+++ b/assets/template/PRS_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65384C55-BD21-4B41-AAA6-24C3C29CEC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48801EF-042C-4389-A38C-D1C2FFE712EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5695017D-36EB-4E4F-BF60-51ECE0DD1FBE}"/>
   </bookViews>
@@ -35,9 +35,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>NRP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>nim</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>kodemk</t>
+  </si>
+  <si>
+    <t>kelasmk</t>
+  </si>
+  <si>
+    <t>ipk</t>
+  </si>
+  <si>
+    <t>ips</t>
+  </si>
+  <si>
+    <t>2021S2</t>
+  </si>
+  <si>
+    <t>C14XXX</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -398,15 +428,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC72072-9D82-48E0-BD7D-80C030DC4F6C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G2">
+        <v>1.1100000000000001</v>
       </c>
     </row>
   </sheetData>
